--- a/컴그_기말_스테이지디자인.xlsx
+++ b/컴그_기말_스테이지디자인.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksnd\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B70D32A-F175-44EB-8D0A-ACAFDB295104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865B144-968B-4A8F-B32C-3DBDC8ADBD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FE50E0C-72E5-46A3-8147-647EB86B387D}"/>
+    <workbookView xWindow="8205" yWindow="570" windowWidth="21600" windowHeight="11385" xr2:uid="{8FE50E0C-72E5-46A3-8147-647EB86B387D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>장애물</t>
   </si>
@@ -74,12 +74,24 @@
     <t>상하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>점프맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프맵 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/12 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +102,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -265,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,6 +399,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,15 +750,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDFDBF-7A3C-45E0-A263-2A9B2DACD39B}">
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -712,43 +768,81 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="W4" s="39"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="42"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="23"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="23"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="42"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="8"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,132 +850,353 @@
       <c r="F7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="11"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="11"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="8"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="8"/>
+    </row>
+    <row r="12" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="1"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="8"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="38"/>
       <c r="F13">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="41"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14" s="26"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="26"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="10"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="1"/>
       <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="8"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="8"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="8"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="15"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="8"/>
+    </row>
+    <row r="18" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="38"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I18" s="7"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="8"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="14"/>
+      <c r="U18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="33"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="15"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="2"/>
       <c r="F19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I19" s="44"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="1"/>
       <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I20" s="44"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="8"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I22" s="44"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="45"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="44"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="45"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I24" s="7"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="8"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="33"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -890,43 +1205,91 @@
       <c r="F25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="44"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="45"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I26" s="44"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="45"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I27" s="7"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="8"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I28" s="7"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="8"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="37"/>
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="31"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="33"/>
+    </row>
+    <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="37"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -936,7 +1299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="35"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1036,11 +1399,11 @@
       <c r="R43" s="16"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="20"/>
       <c r="C44" s="25"/>
       <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="E44" s="8"/>
       <c r="H44" s="17">
         <v>0.4</v>
       </c>
@@ -1064,11 +1427,10 @@
       <c r="R44" s="17"/>
     </row>
     <row r="45" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="1"/>
       <c r="C45" s="26"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="8"/>
       <c r="H45" s="17" t="s">
         <v>0</v>
       </c>
@@ -1099,6 +1461,7 @@
       <c r="C46" s="27"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
+      <c r="G46" s="27"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
@@ -1119,12 +1482,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="25"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
@@ -1144,14 +1508,14 @@
       <c r="R47" s="17"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="25"/>
       <c r="D48" s="1"/>
       <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="20"/>
       <c r="C49" s="25"/>
       <c r="D49" s="20"/>
@@ -1623,6 +1987,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101007AF55BC124B7E441A2007AA00577129C" ma:contentTypeVersion="4" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="14eab2c11131d8716b20163901c85bdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0f9a1815-b903-4ac1-adf6-882b68e65244" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e761002cd33c0497f3409ac8a20dcd1" ns3:_="">
     <xsd:import namespace="0f9a1815-b903-4ac1-adf6-882b68e65244"/>
@@ -1768,15 +2141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1784,6 +2148,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2B16E8-1FDB-49F5-8DA0-A41F593A34AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71A1DF7F-31FB-423F-A2FD-325C00CE8062}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1797,14 +2169,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2B16E8-1FDB-49F5-8DA0-A41F593A34AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
